--- a/Dog Digger/Report_6533.xlsx
+++ b/Dog Digger/Report_6533.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,21 @@
           <t>EPS</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>研營比</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>研支比</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>毛率</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -516,6 +531,15 @@
       <c r="J2" t="n">
         <v>-0.55</v>
       </c>
+      <c r="K2" t="n">
+        <v>69.03018396142168</v>
+      </c>
+      <c r="L2" t="n">
+        <v>52.82941498086387</v>
+      </c>
+      <c r="M2" t="n">
+        <v>99.63258745184089</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -548,6 +572,15 @@
       <c r="J3" t="n">
         <v>0.59</v>
       </c>
+      <c r="K3" t="n">
+        <v>39.65961006370247</v>
+      </c>
+      <c r="L3" t="n">
+        <v>46.72220621901484</v>
+      </c>
+      <c r="M3" t="n">
+        <v>99.93629753555112</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -580,6 +613,15 @@
       <c r="J4" t="n">
         <v>0.1</v>
       </c>
+      <c r="K4" t="n">
+        <v>42.4017019812125</v>
+      </c>
+      <c r="L4" t="n">
+        <v>43.83626998309978</v>
+      </c>
+      <c r="M4" t="n">
+        <v>99.74736216376876</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -612,6 +654,15 @@
       <c r="J5" t="n">
         <v>0.24</v>
       </c>
+      <c r="K5" t="n">
+        <v>43.37557430707786</v>
+      </c>
+      <c r="L5" t="n">
+        <v>49.19663155743637</v>
+      </c>
+      <c r="M5" t="n">
+        <v>99.91741989730039</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -644,6 +695,15 @@
       <c r="J6" t="n">
         <v>-0.89</v>
       </c>
+      <c r="K6" t="n">
+        <v>57.42948366741607</v>
+      </c>
+      <c r="L6" t="n">
+        <v>41.88552374128476</v>
+      </c>
+      <c r="M6" t="n">
+        <v>99.88192174718029</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -676,6 +736,15 @@
       <c r="J7" t="n">
         <v>-0.41</v>
       </c>
+      <c r="K7" t="n">
+        <v>57.20502568837982</v>
+      </c>
+      <c r="L7" t="n">
+        <v>47.54723451508075</v>
+      </c>
+      <c r="M7" t="n">
+        <v>99.85952434747585</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -708,6 +777,15 @@
       <c r="J8" t="n">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="K8" t="n">
+        <v>58.79657910812461</v>
+      </c>
+      <c r="L8" t="n">
+        <v>46.614402034083</v>
+      </c>
+      <c r="M8" t="n">
+        <v>99.43589645693342</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -740,6 +818,15 @@
       <c r="J9" t="n">
         <v>2.81</v>
       </c>
+      <c r="K9" t="n">
+        <v>21.01941657203492</v>
+      </c>
+      <c r="L9" t="n">
+        <v>39.63506673125662</v>
+      </c>
+      <c r="M9" t="n">
+        <v>99.87936779790383</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -772,6 +859,15 @@
       <c r="J10" t="n">
         <v>0.65</v>
       </c>
+      <c r="K10" t="n">
+        <v>47.3307041806175</v>
+      </c>
+      <c r="L10" t="n">
+        <v>52.04266495929222</v>
+      </c>
+      <c r="M10" t="n">
+        <v>99.71811600915792</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -804,6 +900,15 @@
       <c r="J11" t="n">
         <v>1.41</v>
       </c>
+      <c r="K11" t="n">
+        <v>33.3225635337802</v>
+      </c>
+      <c r="L11" t="n">
+        <v>50.04417728852839</v>
+      </c>
+      <c r="M11" t="n">
+        <v>99.89873173554517</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -836,6 +941,15 @@
       <c r="J12" t="n">
         <v>0.99</v>
       </c>
+      <c r="K12" t="n">
+        <v>48.26924277420563</v>
+      </c>
+      <c r="L12" t="n">
+        <v>55.03184940037721</v>
+      </c>
+      <c r="M12" t="n">
+        <v>99.89283559106894</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -868,6 +982,15 @@
       <c r="J13" t="n">
         <v>0.59</v>
       </c>
+      <c r="K13" t="n">
+        <v>41.03934526154601</v>
+      </c>
+      <c r="L13" t="n">
+        <v>51.23472257022745</v>
+      </c>
+      <c r="M13" t="n">
+        <v>99.76621793394635</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -900,6 +1023,15 @@
       <c r="J14" t="n">
         <v>2.46</v>
       </c>
+      <c r="K14" t="n">
+        <v>55.50374593065408</v>
+      </c>
+      <c r="L14" t="n">
+        <v>56.57585857122156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>99.84409725677513</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -932,6 +1064,15 @@
       <c r="J15" t="n">
         <v>1.42</v>
       </c>
+      <c r="K15" t="n">
+        <v>99.42770697455366</v>
+      </c>
+      <c r="L15" t="n">
+        <v>64.73217189314751</v>
+      </c>
+      <c r="M15" t="n">
+        <v>99.93149609670468</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -964,6 +1105,15 @@
       <c r="J16" t="n">
         <v>5.77</v>
       </c>
+      <c r="K16" t="n">
+        <v>44.77441293515824</v>
+      </c>
+      <c r="L16" t="n">
+        <v>51.06783946021209</v>
+      </c>
+      <c r="M16" t="n">
+        <v>99.93361289680125</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -996,6 +1146,15 @@
       <c r="J17" t="n">
         <v>-2.62</v>
       </c>
+      <c r="K17" t="n">
+        <v>58.74119999870766</v>
+      </c>
+      <c r="L17" t="n">
+        <v>53.4346299099205</v>
+      </c>
+      <c r="M17" t="n">
+        <v>99.95929141210338</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1028,6 +1187,15 @@
       <c r="J18" t="n">
         <v>-1.08</v>
       </c>
+      <c r="K18" t="n">
+        <v>74.03996517041618</v>
+      </c>
+      <c r="L18" t="n">
+        <v>60.43127642447404</v>
+      </c>
+      <c r="M18" t="n">
+        <v>99.93025198137684</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1060,6 +1228,15 @@
       <c r="J19" t="n">
         <v>-0.83</v>
       </c>
+      <c r="K19" t="n">
+        <v>104.8119536945043</v>
+      </c>
+      <c r="L19" t="n">
+        <v>58.82155778658355</v>
+      </c>
+      <c r="M19" t="n">
+        <v>99.41950680405006</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1091,6 +1268,15 @@
       </c>
       <c r="J20" t="n">
         <v>2.05</v>
+      </c>
+      <c r="K20" t="n">
+        <v>72.56651466008555</v>
+      </c>
+      <c r="L20" t="n">
+        <v>57.14240276841262</v>
+      </c>
+      <c r="M20" t="n">
+        <v>99.84085759177952</v>
       </c>
     </row>
   </sheetData>
